--- a/xlsx/CaVaTeCo/form_b_lideres.xlsx
+++ b/xlsx/CaVaTeCo/form_b_lideres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_blue_future\xlsx\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_wcs_nampula\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A27A7E-7A2E-45D1-89C7-D6B804A796DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3DFB97-8966-43DD-95D6-021F26F4FBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="221">
   <si>
     <t>type</t>
   </si>
@@ -690,15 +690,44 @@
   </si>
   <si>
     <t>terrafirma_wcs.jpg</t>
+  </si>
+  <si>
+    <t>cindau</t>
+  </si>
+  <si>
+    <t>${language}='cindau'</t>
+  </si>
+  <si>
+    <t>consent_cindau.mp3</t>
+  </si>
+  <si>
+    <t>consent_cisena.mp3</t>
+  </si>
+  <si>
+    <t>consent_chuabo.mp3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1012,420 +1041,426 @@
   </borders>
   <cellStyleXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="234" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="243"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="243" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="242"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="243"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="243" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="242"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="242" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="242" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2018,39 +2053,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.09765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.3984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.8984375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="40.796875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.19921875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="40.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.25" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.25" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
@@ -2117,7 +2152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>89</v>
       </c>
@@ -2128,7 +2163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>78</v>
       </c>
@@ -2139,7 +2174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>78</v>
       </c>
@@ -2150,7 +2185,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>78</v>
       </c>
@@ -2161,7 +2196,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
@@ -2185,35 +2220,35 @@
       </c>
       <c r="P9" s="47"/>
     </row>
-    <row r="10" spans="1:19" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:19" s="26" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="26" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>26</v>
       </c>
@@ -2227,7 +2262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="62" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="62" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>198</v>
       </c>
@@ -2238,29 +2273,29 @@
         <v>200</v>
       </c>
       <c r="D14" s="64"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="65" t="s">
         <v>201</v>
       </c>
       <c r="G14" s="65"/>
       <c r="J14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="68" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="69" t="s">
+      <c r="N15" s="68" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2280,7 +2315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>59</v>
       </c>
@@ -2297,7 +2332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>61</v>
       </c>
@@ -2317,7 +2352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>88</v>
       </c>
@@ -2337,7 +2372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>148</v>
       </c>
@@ -2354,19 +2389,19 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="L21" s="69"/>
-      <c r="N21" s="69" t="s">
+      <c r="L21" s="68"/>
+      <c r="N21" s="68" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2377,7 +2412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>136</v>
       </c>
@@ -2394,7 +2429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
@@ -2417,7 +2452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -2425,7 +2460,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:19" s="55" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="55" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>31</v>
       </c>
@@ -2436,7 +2471,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
         <v>156</v>
       </c>
@@ -2450,7 +2485,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>26</v>
       </c>
@@ -2472,7 +2507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>26</v>
       </c>
@@ -2494,7 +2529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>26</v>
       </c>
@@ -2516,7 +2551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>26</v>
       </c>
@@ -2538,7 +2573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>26</v>
       </c>
@@ -2551,8 +2586,8 @@
       <c r="G32" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="P32" s="52" t="s">
-        <v>169</v>
+      <c r="P32" s="76" t="s">
+        <v>220</v>
       </c>
       <c r="Q32" s="52"/>
       <c r="R32" s="52"/>
@@ -2560,7 +2595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>26</v>
       </c>
@@ -2573,8 +2608,8 @@
       <c r="G33" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="P33" s="52" t="s">
-        <v>169</v>
+      <c r="P33" s="75" t="s">
+        <v>219</v>
       </c>
       <c r="Q33" s="52"/>
       <c r="R33" s="52"/>
@@ -2582,7 +2617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>26</v>
       </c>
@@ -2604,7 +2639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>26</v>
       </c>
@@ -2626,7 +2661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>26</v>
       </c>
@@ -2648,7 +2683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>26</v>
       </c>
@@ -2670,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>26</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>26</v>
       </c>
@@ -2714,66 +2749,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
+    <row r="40" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="P40" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B41" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C41" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="J41" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="55" t="s">
+      <c r="L41" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="M40" s="37" t="s">
+      <c r="M41" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B42" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>99</v>
@@ -2785,117 +2822,137 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H45" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="35" t="s">
+      <c r="I45" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="L44" s="19" t="s">
+      <c r="L45" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="23"/>
-    </row>
-    <row r="46" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="23"/>
+    </row>
+    <row r="47" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>134</v>
+        <v>83</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="M47" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M48" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B50" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="J50" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B51" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H51" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I51" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B52" s="21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2916,15 +2973,15 @@
       <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.8984375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.8984375" style="4"/>
+    <col min="3" max="3" width="54.875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -2938,15 +2995,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>38</v>
       </c>
@@ -2957,7 +3014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -2968,7 +3025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>38</v>
       </c>
@@ -2979,7 +3036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>38</v>
       </c>
@@ -2990,7 +3047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -3001,7 +3058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>38</v>
       </c>
@@ -3012,7 +3069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>38</v>
       </c>
@@ -3023,7 +3080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>38</v>
       </c>
@@ -3034,7 +3091,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
@@ -3045,7 +3102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -3056,10 +3113,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="25"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>191</v>
       </c>
@@ -3070,14 +3127,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="69" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3096,16 +3153,16 @@
       <selection activeCell="B856" sqref="B856"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="40" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="40"/>
-    <col min="6" max="6" width="34.8984375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="40" customWidth="1"/>
     <col min="7" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>105</v>
       </c>
@@ -3128,1647 +3185,1647 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="40" t="s">
         <v>107</v>
       </c>
@@ -4777,7 +4834,7 @@
       <c r="D332" s="41"/>
       <c r="E332" s="41"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="40" t="s">
         <v>107</v>
       </c>
@@ -4786,7 +4843,7 @@
       <c r="D333" s="41"/>
       <c r="E333" s="41"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="40" t="s">
         <v>107</v>
       </c>
@@ -4795,7 +4852,7 @@
       <c r="D334" s="41"/>
       <c r="E334" s="41"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="40" t="s">
         <v>107</v>
       </c>
@@ -4804,7 +4861,7 @@
       <c r="D335" s="41"/>
       <c r="E335" s="41"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="40" t="s">
         <v>107</v>
       </c>
@@ -4813,7 +4870,7 @@
       <c r="D336" s="41"/>
       <c r="E336" s="41"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="40" t="s">
         <v>107</v>
       </c>
@@ -4822,7 +4879,7 @@
       <c r="D337" s="41"/>
       <c r="E337" s="41"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="40" t="s">
         <v>107</v>
       </c>
@@ -4831,7 +4888,7 @@
       <c r="D338" s="41"/>
       <c r="E338" s="41"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="40" t="s">
         <v>107</v>
       </c>
@@ -4840,7 +4897,7 @@
       <c r="D339" s="41"/>
       <c r="E339" s="41"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="40" t="s">
         <v>107</v>
       </c>
@@ -4849,7 +4906,7 @@
       <c r="D340" s="41"/>
       <c r="E340" s="41"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="40" t="s">
         <v>107</v>
       </c>
@@ -4858,7 +4915,7 @@
       <c r="D341" s="41"/>
       <c r="E341" s="41"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="40" t="s">
         <v>107</v>
       </c>
@@ -4867,7 +4924,7 @@
       <c r="D342" s="41"/>
       <c r="E342" s="41"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="40" t="s">
         <v>107</v>
       </c>
@@ -4876,7 +4933,7 @@
       <c r="D343" s="41"/>
       <c r="E343" s="41"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="40" t="s">
         <v>107</v>
       </c>
@@ -4885,7 +4942,7 @@
       <c r="D344" s="41"/>
       <c r="E344" s="41"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="40" t="s">
         <v>107</v>
       </c>
@@ -4894,7 +4951,7 @@
       <c r="D345" s="41"/>
       <c r="E345" s="41"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="40" t="s">
         <v>107</v>
       </c>
@@ -4903,7 +4960,7 @@
       <c r="D346" s="41"/>
       <c r="E346" s="41"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="40" t="s">
         <v>107</v>
       </c>
@@ -4912,7 +4969,7 @@
       <c r="D347" s="41"/>
       <c r="E347" s="41"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="40" t="s">
         <v>107</v>
       </c>
@@ -4921,7 +4978,7 @@
       <c r="D348" s="41"/>
       <c r="E348" s="41"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="40" t="s">
         <v>107</v>
       </c>
@@ -4930,7 +4987,7 @@
       <c r="D349" s="41"/>
       <c r="E349" s="41"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="40" t="s">
         <v>107</v>
       </c>
@@ -4939,7 +4996,7 @@
       <c r="D350" s="41"/>
       <c r="E350" s="41"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="40" t="s">
         <v>107</v>
       </c>
@@ -4948,7 +5005,7 @@
       <c r="D351" s="41"/>
       <c r="E351" s="41"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="40" t="s">
         <v>107</v>
       </c>
@@ -4957,7 +5014,7 @@
       <c r="D352" s="41"/>
       <c r="E352" s="41"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="40" t="s">
         <v>107</v>
       </c>
@@ -4966,7 +5023,7 @@
       <c r="D353" s="41"/>
       <c r="E353" s="41"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="40" t="s">
         <v>107</v>
       </c>
@@ -4975,7 +5032,7 @@
       <c r="D354" s="41"/>
       <c r="E354" s="41"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="40" t="s">
         <v>107</v>
       </c>
@@ -4984,7 +5041,7 @@
       <c r="D355" s="41"/>
       <c r="E355" s="41"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="40" t="s">
         <v>107</v>
       </c>
@@ -4993,7 +5050,7 @@
       <c r="D356" s="41"/>
       <c r="E356" s="41"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="40" t="s">
         <v>107</v>
       </c>
@@ -5002,7 +5059,7 @@
       <c r="D357" s="41"/>
       <c r="E357" s="41"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="40" t="s">
         <v>107</v>
       </c>
@@ -5011,7 +5068,7 @@
       <c r="D358" s="41"/>
       <c r="E358" s="41"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="40" t="s">
         <v>107</v>
       </c>
@@ -5020,7 +5077,7 @@
       <c r="D359" s="41"/>
       <c r="E359" s="41"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="40" t="s">
         <v>107</v>
       </c>
@@ -5029,7 +5086,7 @@
       <c r="D360" s="41"/>
       <c r="E360" s="41"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="40" t="s">
         <v>107</v>
       </c>
@@ -5038,7 +5095,7 @@
       <c r="D361" s="41"/>
       <c r="E361" s="41"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="40" t="s">
         <v>107</v>
       </c>
@@ -5047,7 +5104,7 @@
       <c r="D362" s="41"/>
       <c r="E362" s="41"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="40" t="s">
         <v>107</v>
       </c>
@@ -5056,7 +5113,7 @@
       <c r="D363" s="41"/>
       <c r="E363" s="41"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="40" t="s">
         <v>107</v>
       </c>
@@ -5065,7 +5122,7 @@
       <c r="D364" s="41"/>
       <c r="E364" s="41"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="40" t="s">
         <v>107</v>
       </c>
@@ -5074,7 +5131,7 @@
       <c r="D365" s="41"/>
       <c r="E365" s="41"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="40" t="s">
         <v>107</v>
       </c>
@@ -5083,7 +5140,7 @@
       <c r="D366" s="41"/>
       <c r="E366" s="41"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="40" t="s">
         <v>107</v>
       </c>
@@ -5092,7 +5149,7 @@
       <c r="D367" s="41"/>
       <c r="E367" s="41"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="40" t="s">
         <v>107</v>
       </c>
@@ -5101,7 +5158,7 @@
       <c r="D368" s="41"/>
       <c r="E368" s="41"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="40" t="s">
         <v>107</v>
       </c>
@@ -5110,7 +5167,7 @@
       <c r="D369" s="41"/>
       <c r="E369" s="41"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="40" t="s">
         <v>107</v>
       </c>
@@ -5119,7 +5176,7 @@
       <c r="D370" s="41"/>
       <c r="E370" s="41"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="40" t="s">
         <v>107</v>
       </c>
@@ -5128,7 +5185,7 @@
       <c r="D371" s="41"/>
       <c r="E371" s="41"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="40" t="s">
         <v>107</v>
       </c>
@@ -5137,7 +5194,7 @@
       <c r="D372" s="41"/>
       <c r="E372" s="41"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="40" t="s">
         <v>107</v>
       </c>
@@ -5146,7 +5203,7 @@
       <c r="D373" s="41"/>
       <c r="E373" s="41"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="40" t="s">
         <v>107</v>
       </c>
@@ -5155,7 +5212,7 @@
       <c r="D374" s="41"/>
       <c r="E374" s="41"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="40" t="s">
         <v>107</v>
       </c>
@@ -5164,7 +5221,7 @@
       <c r="D375" s="41"/>
       <c r="E375" s="41"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="40" t="s">
         <v>107</v>
       </c>
@@ -5173,7 +5230,7 @@
       <c r="D376" s="41"/>
       <c r="E376" s="41"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="40" t="s">
         <v>107</v>
       </c>
@@ -5182,2411 +5239,2411 @@
       <c r="D377" s="41"/>
       <c r="E377" s="41"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B584" s="42"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B585" s="42"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B586" s="42"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B587" s="42"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B588" s="42"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B589" s="42"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B590" s="42"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B591" s="42"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B592" s="42"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B593" s="42"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B594" s="42"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B595" s="42"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B596" s="42"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B597" s="42"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B598" s="42"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B599" s="42"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B600" s="42"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B601" s="42"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B602" s="42"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B603" s="42"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B604" s="42"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B605" s="42"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B606" s="42"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B607" s="42"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="40" t="s">
         <v>112</v>
       </c>
       <c r="B608" s="42"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="40" t="s">
         <v>112</v>
       </c>
       <c r="B609" s="42"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B610" s="42"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="40" t="s">
         <v>113</v>
       </c>
       <c r="B611" s="42"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="40" t="s">
         <v>113</v>
       </c>
       <c r="B612" s="42"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="40" t="s">
         <v>113</v>
       </c>
       <c r="B613" s="42"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="40" t="s">
         <v>113</v>
       </c>
       <c r="B614" s="42"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B615" s="42"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B616" s="42"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B617" s="42"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B618" s="42"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B619" s="42"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B620" s="42"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B621" s="42"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="40" t="s">
         <v>115</v>
       </c>
       <c r="B622" s="42"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="40" t="s">
         <v>115</v>
       </c>
       <c r="B623" s="42"/>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B626" s="42"/>
       <c r="C626" s="43"/>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B627" s="42"/>
       <c r="C627" s="43"/>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B628" s="42"/>
       <c r="C628" s="43"/>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B629" s="42"/>
       <c r="C629" s="43"/>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B630" s="42"/>
       <c r="C630" s="43"/>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B631" s="42"/>
       <c r="C631" s="43"/>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B632" s="42"/>
       <c r="C632" s="43"/>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B633" s="42"/>
       <c r="C633" s="43"/>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B634" s="42"/>
       <c r="C634" s="43"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B635" s="42"/>
       <c r="C635" s="43"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B636" s="42"/>
       <c r="C636" s="43"/>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B637" s="42"/>
       <c r="C637" s="43"/>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B638" s="42"/>
       <c r="C638" s="43"/>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B639" s="42"/>
       <c r="C639" s="43"/>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B640" s="42"/>
       <c r="C640" s="43"/>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B641" s="42"/>
       <c r="C641" s="43"/>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B642" s="42"/>
       <c r="C642" s="43"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="43"/>
       <c r="B643" s="44"/>
       <c r="C643" s="43"/>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B644" s="44"/>
       <c r="C644" s="43"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B645" s="44"/>
       <c r="C645" s="43"/>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B647" s="42"/>
       <c r="C647" s="43"/>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B648" s="42"/>
       <c r="C648" s="43"/>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B649" s="42"/>
       <c r="C649" s="43"/>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B650" s="42"/>
       <c r="C650" s="43"/>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B651" s="42"/>
       <c r="C651" s="43"/>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B652" s="42"/>
       <c r="C652" s="43"/>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B653" s="42"/>
       <c r="C653" s="43"/>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B654" s="42"/>
       <c r="C654" s="43"/>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B655" s="42"/>
       <c r="C655" s="43"/>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B656" s="42"/>
       <c r="C656" s="43"/>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B657" s="42"/>
       <c r="C657" s="43"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B658" s="42"/>
       <c r="C658" s="43"/>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B659" s="42"/>
       <c r="C659" s="43"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B660" s="42"/>
       <c r="C660" s="43"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B661" s="42"/>
       <c r="C661" s="43"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B662" s="42"/>
       <c r="C662" s="43"/>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B663" s="42"/>
       <c r="C663" s="43"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B664" s="42"/>
       <c r="C664" s="43"/>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B665" s="42"/>
       <c r="C665" s="43"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B668" s="42"/>
       <c r="C668" s="43"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B669" s="42"/>
       <c r="C669" s="43"/>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B670" s="42"/>
       <c r="C670" s="43"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="43"/>
       <c r="B671" s="42"/>
       <c r="C671" s="43"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="43"/>
       <c r="B672" s="42"/>
       <c r="C672" s="43"/>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B673" s="42"/>
       <c r="C673" s="43"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B674" s="42"/>
       <c r="C674" s="43"/>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B675" s="42"/>
       <c r="C675" s="43"/>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B676" s="42"/>
       <c r="C676" s="43"/>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B677" s="42"/>
       <c r="C677" s="43"/>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B678" s="42"/>
       <c r="C678" s="43"/>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B679" s="42"/>
       <c r="C679" s="43"/>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B680" s="42"/>
       <c r="C680" s="43"/>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B681" s="42"/>
       <c r="C681" s="43"/>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B682" s="42"/>
       <c r="C682" s="43"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B684" s="42"/>
       <c r="C684" s="43"/>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B685" s="42"/>
       <c r="C685" s="43"/>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B686" s="42"/>
       <c r="C686" s="43"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B687" s="42"/>
       <c r="C687" s="43"/>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B688" s="42"/>
       <c r="C688" s="43"/>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B689" s="42"/>
       <c r="C689" s="43"/>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B690" s="42"/>
       <c r="C690" s="43"/>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B691" s="42"/>
       <c r="C691" s="43"/>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B692" s="42"/>
       <c r="C692" s="43"/>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B693" s="42"/>
       <c r="C693" s="43"/>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B694" s="42"/>
       <c r="C694" s="43"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B696" s="42"/>
       <c r="C696" s="43"/>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B697" s="42"/>
       <c r="C697" s="43"/>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B698" s="42"/>
       <c r="C698" s="43"/>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B699" s="42"/>
       <c r="C699" s="43"/>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B700" s="42"/>
       <c r="C700" s="43"/>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B701" s="42"/>
       <c r="C701" s="43"/>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B702" s="42"/>
       <c r="C702" s="43"/>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B703" s="42"/>
       <c r="C703" s="43"/>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B704" s="42"/>
       <c r="C704" s="43"/>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B705" s="42"/>
       <c r="C705" s="43"/>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B706" s="42"/>
       <c r="C706" s="43"/>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B707" s="42"/>
       <c r="C707" s="43"/>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B709" s="42"/>
       <c r="C709" s="43"/>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B710" s="42"/>
       <c r="C710" s="43"/>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B711" s="42"/>
       <c r="C711" s="43"/>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B712" s="42"/>
       <c r="C712" s="43"/>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B714" s="42"/>
       <c r="C714" s="43"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B715" s="42"/>
       <c r="C715" s="43"/>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B716" s="42"/>
       <c r="C716" s="43"/>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B717" s="42"/>
       <c r="C717" s="43"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B718" s="42"/>
       <c r="C718" s="43"/>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B719" s="42"/>
       <c r="C719" s="43"/>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B720" s="42"/>
       <c r="C720" s="43"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B721" s="42"/>
       <c r="C721" s="43"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B722" s="42"/>
       <c r="C722" s="43"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B723" s="42"/>
       <c r="C723" s="43"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B724" s="42"/>
       <c r="C724" s="43"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B725" s="42"/>
       <c r="C725" s="43"/>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B726" s="42"/>
       <c r="C726" s="43"/>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B727" s="42"/>
       <c r="C727" s="43"/>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B728" s="42"/>
       <c r="C728" s="43"/>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B729" s="42"/>
       <c r="C729" s="43"/>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B730" s="42"/>
       <c r="C730" s="43"/>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B731" s="42"/>
       <c r="C731" s="43"/>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B732" s="42"/>
       <c r="C732" s="43"/>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B733" s="42"/>
       <c r="C733" s="43"/>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B734" s="42"/>
       <c r="C734" s="43"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B735" s="42"/>
       <c r="C735" s="43"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B736" s="42"/>
       <c r="C736" s="43"/>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B737" s="42"/>
       <c r="C737" s="43"/>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B738" s="42"/>
       <c r="C738" s="43"/>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B739" s="42"/>
       <c r="C739" s="43"/>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B740" s="42"/>
       <c r="C740" s="43"/>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B742" s="42"/>
       <c r="C742" s="43"/>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B743" s="42"/>
       <c r="C743" s="43"/>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B744" s="42"/>
       <c r="C744" s="43"/>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B745" s="42"/>
       <c r="C745" s="43"/>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B746" s="42"/>
       <c r="C746" s="43"/>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="43"/>
       <c r="B747" s="42"/>
       <c r="C747" s="43"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B748" s="42"/>
       <c r="C748" s="43"/>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B749" s="42"/>
       <c r="C749" s="43"/>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B750" s="42"/>
       <c r="C750" s="43"/>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B751" s="42"/>
       <c r="C751" s="43"/>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B752" s="42"/>
       <c r="C752" s="43"/>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B753" s="42"/>
       <c r="C753" s="43"/>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B754" s="42"/>
       <c r="C754" s="43"/>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B755" s="42"/>
       <c r="C755" s="43"/>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B756" s="42"/>
       <c r="C756" s="43"/>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="43"/>
       <c r="B757" s="42"/>
       <c r="C757" s="43"/>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B758" s="42"/>
       <c r="C758" s="43"/>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B759" s="42"/>
       <c r="C759" s="43"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B760" s="42"/>
       <c r="C760" s="43"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B761" s="42"/>
       <c r="C761" s="43"/>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B762" s="42"/>
       <c r="C762" s="43"/>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B763" s="42"/>
       <c r="C763" s="43"/>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B764" s="42"/>
       <c r="C764" s="43"/>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B765" s="42"/>
       <c r="C765" s="43"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B766" s="42"/>
       <c r="C766" s="43"/>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B767" s="42"/>
       <c r="C767" s="43"/>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B768" s="42"/>
       <c r="C768" s="43"/>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B769" s="42"/>
       <c r="C769" s="43"/>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B770" s="42"/>
       <c r="C770" s="43"/>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B771" s="42"/>
       <c r="C771" s="43"/>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B772" s="42"/>
       <c r="C772" s="43"/>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B773" s="42"/>
       <c r="C773" s="43"/>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="43"/>
       <c r="B774" s="42"/>
       <c r="C774" s="43"/>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B775" s="42"/>
       <c r="C775" s="43"/>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B776" s="42"/>
       <c r="C776" s="43"/>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B777" s="42"/>
       <c r="C777" s="43"/>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B778" s="42"/>
       <c r="C778" s="43"/>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B779" s="42"/>
       <c r="C779" s="43"/>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B780" s="42"/>
       <c r="C780" s="43"/>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B781" s="42"/>
       <c r="C781" s="43"/>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B782" s="42"/>
       <c r="C782" s="43"/>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B783" s="42"/>
       <c r="C783" s="43"/>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B784" s="42"/>
       <c r="C784" s="43"/>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B785" s="42"/>
       <c r="C785" s="43"/>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B786" s="42"/>
       <c r="C786" s="43"/>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B787" s="42"/>
       <c r="C787" s="43"/>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B788" s="42"/>
       <c r="C788" s="43"/>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B789" s="42"/>
       <c r="C789" s="43"/>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B790" s="42"/>
       <c r="C790" s="43"/>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B791" s="42"/>
       <c r="C791" s="43"/>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B792" s="42"/>
       <c r="C792" s="43"/>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B793" s="42"/>
       <c r="C793" s="43"/>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B794" s="42"/>
       <c r="C794" s="43"/>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B795" s="42"/>
       <c r="C795" s="43"/>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="43"/>
       <c r="B796" s="42"/>
       <c r="C796" s="43"/>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="43" t="s">
         <v>128</v>
       </c>
       <c r="B797" s="42"/>
       <c r="C797" s="43"/>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="43" t="s">
         <v>128</v>
       </c>
       <c r="B798" s="42"/>
       <c r="C798" s="43"/>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="43"/>
       <c r="B799" s="42"/>
       <c r="C799" s="43"/>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B800" s="42"/>
       <c r="C800" s="43"/>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B801" s="42"/>
       <c r="C801" s="43"/>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="43" t="s">
         <v>131</v>
       </c>
@@ -7596,7 +7653,7 @@
       <c r="L803" s="42"/>
       <c r="M803" s="43"/>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="43" t="s">
         <v>131</v>
       </c>
@@ -7606,7 +7663,7 @@
       <c r="L804" s="42"/>
       <c r="M804" s="43"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="43" t="s">
         <v>131</v>
       </c>
@@ -7616,7 +7673,7 @@
       <c r="L805" s="42"/>
       <c r="M805" s="43"/>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="43" t="s">
         <v>131</v>
       </c>
@@ -7626,7 +7683,7 @@
       <c r="L806" s="42"/>
       <c r="M806" s="43"/>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="43" t="s">
         <v>131</v>
       </c>
@@ -7636,7 +7693,7 @@
       <c r="L807" s="42"/>
       <c r="M807" s="43"/>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="43" t="s">
         <v>131</v>
       </c>
@@ -7646,7 +7703,7 @@
       <c r="L808" s="42"/>
       <c r="M808" s="43"/>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="43" t="s">
         <v>131</v>
       </c>
@@ -7656,7 +7713,7 @@
       <c r="L809" s="42"/>
       <c r="M809" s="43"/>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="43" t="s">
         <v>131</v>
       </c>
@@ -7666,7 +7723,7 @@
       <c r="L810" s="42"/>
       <c r="M810" s="43"/>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="43" t="s">
         <v>131</v>
       </c>
@@ -7676,7 +7733,7 @@
       <c r="L811" s="42"/>
       <c r="M811" s="43"/>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="43" t="s">
         <v>131</v>
       </c>
@@ -7686,204 +7743,204 @@
       <c r="L812" s="42"/>
       <c r="M812" s="43"/>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="40" t="s">
         <v>132</v>
       </c>
       <c r="B814" s="42"/>
       <c r="C814" s="43"/>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="40" t="s">
         <v>132</v>
       </c>
       <c r="B815" s="42"/>
       <c r="C815" s="43"/>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="40" t="s">
         <v>132</v>
       </c>
       <c r="B816" s="42"/>
       <c r="C816" s="43"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="40" t="s">
         <v>132</v>
       </c>
       <c r="B817" s="42"/>
       <c r="C817" s="43"/>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="40" t="s">
         <v>132</v>
       </c>
       <c r="B818" s="42"/>
       <c r="C818" s="43"/>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="40" t="s">
         <v>132</v>
       </c>
       <c r="B819" s="42"/>
       <c r="C819" s="43"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="40" t="s">
         <v>132</v>
       </c>
       <c r="B820" s="42"/>
       <c r="C820" s="43"/>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="43" t="s">
         <v>133</v>
       </c>
       <c r="B822" s="42"/>
       <c r="C822" s="43"/>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="43" t="s">
         <v>133</v>
       </c>
       <c r="B823" s="42"/>
       <c r="C823" s="43"/>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="43" t="s">
         <v>133</v>
       </c>
       <c r="B824" s="42"/>
       <c r="C824" s="43"/>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="43" t="s">
         <v>133</v>
       </c>
       <c r="B825" s="42"/>
       <c r="C825" s="43"/>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="43" t="s">
         <v>133</v>
       </c>
       <c r="B826" s="42"/>
       <c r="C826" s="43"/>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B828" s="42"/>
       <c r="C828" s="45"/>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B829" s="42"/>
       <c r="C829" s="43"/>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B830" s="42"/>
       <c r="C830" s="43"/>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B831" s="42"/>
       <c r="C831" s="43"/>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B832" s="42"/>
       <c r="C832" s="43"/>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B833" s="42"/>
       <c r="C833" s="43"/>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B834" s="42"/>
       <c r="C834" s="43"/>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B835" s="42"/>
       <c r="C835" s="43"/>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="40" t="s">
         <v>142</v>
       </c>
       <c r="B837" s="42"/>
       <c r="C837" s="45"/>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="40" t="s">
         <v>142</v>
       </c>
       <c r="B838" s="42"/>
       <c r="C838" s="43"/>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="40" t="s">
         <v>142</v>
       </c>
       <c r="B839" s="42"/>
       <c r="C839" s="43"/>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="40" t="s">
         <v>142</v>
       </c>
       <c r="B840" s="42"/>
       <c r="C840" s="43"/>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="43" t="s">
         <v>143</v>
       </c>
       <c r="B842" s="42"/>
       <c r="C842" s="43"/>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="43" t="s">
         <v>143</v>
       </c>
       <c r="B843" s="42"/>
       <c r="C843" s="43"/>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="40" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="40" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="40" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="40" t="s">
         <v>194</v>
       </c>
@@ -7899,20 +7956,20 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="55.59765625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="45.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -7929,24 +7986,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="30">
-        <v>2022020901</v>
-      </c>
-      <c r="D2" s="74" t="s">
+        <v>2022092001</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="30"/>

--- a/xlsx/CaVaTeCo/form_b_lideres.xlsx
+++ b/xlsx/CaVaTeCo/form_b_lideres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_wcs_nampula\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3DFB97-8966-43DD-95D6-021F26F4FBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25FD2F-683E-4E66-92D3-5132246B9542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="222">
   <si>
     <t>type</t>
   </si>
@@ -240,9 +240,6 @@
     <t>chief_level</t>
   </si>
   <si>
-    <t>Invalida - as respostas nesta pagina não podiam incluir um novo paragrafo. Faça a favor de eliminar qualquer linha adicional.</t>
-  </si>
-  <si>
     <t>numbers</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>Coordenadas GPS da casa do chefe</t>
   </si>
   <si>
-    <t>Pode ser, por exemplo, 'Cabo de Terra', 'Sapanda', 'Reinha', 'Pyamwene', etc.)</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
     <t>regex(., "^[a-zA-Z0-9. _-éáíóãõúçâê]{1,55}$")</t>
   </si>
   <si>
-    <t>Invalida - as respostas nesta pagina não podem incluir um novo paragrafo. Faça a favor de eliminar qualquer linha adicional.</t>
-  </si>
-  <si>
     <t>regex(., "^[a-zA-Z0-9.;? _-éáíóãõúçâê]{1,255}$")</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>regex(.,'[0-9]{9}')</t>
   </si>
   <si>
-    <t>O numero não está no formato correcto. Faça a favor de conferir</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -475,15 +463,6 @@
   </si>
   <si>
     <t>&lt;br/&gt; &lt;h1&gt;Cadeia de Valor de Terra Comunitária&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;${project}&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>form_b_dados_lideres</t>
-  </si>
-  <si>
-    <t>&lt;span style="color:#FF0000"&gt;${project}&lt;/span&gt;&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;  &lt;br/&gt;
-Este formulário é utilizado para registrar os nomes e contactos dos lideres de cada povoado.
-A previa submissão do Formulário B - Recolha de Dados Iniciais (Povoados) é um pré-requisito.
-Por favor deslizar para a frente para continuar.</t>
   </si>
   <si>
     <t>select_one villages</t>
@@ -656,9 +635,6 @@
     <t>searchtext</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>"Formulario B2 - Recolha de Dados Iniciais (Lideres)"</t>
   </si>
   <si>
@@ -671,7 +647,49 @@
     <t>. &lt;= today()</t>
   </si>
   <si>
-    <t>"WCS - Futura Azul"</t>
+    <t>cindau</t>
+  </si>
+  <si>
+    <t>${language}='cindau'</t>
+  </si>
+  <si>
+    <t>consent_cindau.mp3</t>
+  </si>
+  <si>
+    <t>consent_cisena.mp3</t>
+  </si>
+  <si>
+    <t>consent_chuabo.mp3</t>
+  </si>
+  <si>
+    <t>dados_lideres</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#FF0000"&gt;${project}&lt;/span&gt;&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;  &lt;br/&gt;
+Este formulário é utilizado para registrar os nomes e contactos dos líderes de cada povoado.
+A prévia submissão do Formulário B - Recolha de Dados Iniciais (Povoados) é um pré-requisito.
+Por favor deslizar para a frente para continuar.</t>
+  </si>
+  <si>
+    <t>Pode ser, por exemplo, 'Cabo de Terra', 'Sapanda', 'Rainha', 'Pyamwene', etc.)</t>
+  </si>
+  <si>
+    <t>Inválida - as respostas nesta página não devem incluir um novo paragrafo. Faça o favor de eliminar qualquer linha adicional.</t>
+  </si>
+  <si>
+    <t>O número não está no formato correcto. Faça o favor de conferir</t>
+  </si>
+  <si>
+    <t>Inválida - as respostas nesta pagina não devem incluir um novo parágrafo. Faça o favor de eliminar qualquer linha adicional.</t>
+  </si>
+  <si>
+    <t>Inválida - as respostas nesta página não podem incluir um novo parágrafo. Faça o favor de eliminar qualquer linha adicional.</t>
+  </si>
+  <si>
+    <t>consent_ciyao.mp3</t>
+  </si>
+  <si>
+    <t>terrafirma_wcs.jpg</t>
   </si>
   <si>
     <t>search('enum_names_wcs_nampula', 'startswith', 'enumerator_name', ${searchtext})</t>
@@ -686,34 +704,26 @@
     <t>pulldata('povoado_names_wcs_nampula', 'village_name',  'village_id_key', ${village_id})</t>
   </si>
   <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/wcs_nampula/submission</t>
-  </si>
-  <si>
-    <t>terrafirma_wcs.jpg</t>
-  </si>
-  <si>
-    <t>cindau</t>
-  </si>
-  <si>
-    <t>${language}='cindau'</t>
-  </si>
-  <si>
-    <t>consent_cindau.mp3</t>
-  </si>
-  <si>
-    <t>consent_cisena.mp3</t>
-  </si>
-  <si>
-    <t>consent_chuabo.mp3</t>
+    <t>"WCS - Futuro Azul"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1041,426 +1051,427 @@
   </borders>
   <cellStyleXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="243"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="243" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="242"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="243"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="243" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="242"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="242" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="242" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2056,10 +2067,10 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>11</v>
@@ -2132,16 +2143,16 @@
         <v>12</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="S1" s="51" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2154,46 +2165,46 @@
     </row>
     <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N6" s="59" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="61" t="s">
-        <v>205</v>
+        <v>77</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2201,11 +2212,11 @@
         <v>21</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="L8" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2213,9 +2224,9 @@
         <v>31</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="77" t="s">
         <v>215</v>
       </c>
       <c r="P9" s="47"/>
@@ -2225,10 +2236,10 @@
         <v>31</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>145</v>
+        <v>80</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2244,55 +2255,55 @@
       <c r="B12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="C12" s="74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="J13" s="62" t="s">
+      <c r="B13" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="62" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="F14" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="J14" s="62" t="s">
+    <row r="14" spans="1:19" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="F14" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="J14" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="68" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="N15" s="68" t="s">
-        <v>211</v>
+      <c r="L14" s="65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="N15" s="65" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2306,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>20</v>
@@ -2354,10 +2365,10 @@
     </row>
     <row r="19" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>64</v>
@@ -2374,31 +2385,31 @@
     </row>
     <row r="20" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J20" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="60" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="L21" s="68"/>
-      <c r="N21" s="68" t="s">
-        <v>213</v>
+      <c r="L20" s="77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="65"/>
+      <c r="N21" s="65" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2406,27 +2417,27 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>197</v>
+        <v>133</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>191</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2437,16 +2448,16 @@
         <v>66</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>209</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="I24" s="75" t="s">
+        <v>213</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>20</v>
@@ -2465,24 +2476,24 @@
         <v>31</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
@@ -2490,16 +2501,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P28" s="52" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
@@ -2512,16 +2523,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P29" s="52" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="52"/>
       <c r="R29" s="52"/>
@@ -2534,16 +2545,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P30" s="52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="52"/>
       <c r="R30" s="52"/>
@@ -2556,16 +2567,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P31" s="52" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
@@ -2578,16 +2589,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="P32" s="76" t="s">
-        <v>220</v>
+        <v>168</v>
+      </c>
+      <c r="P32" s="73" t="s">
+        <v>206</v>
       </c>
       <c r="Q32" s="52"/>
       <c r="R32" s="52"/>
@@ -2600,16 +2611,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="P33" s="75" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="P33" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="Q33" s="52"/>
       <c r="R33" s="52"/>
@@ -2622,16 +2633,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P34" s="52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q34" s="52"/>
       <c r="R34" s="52"/>
@@ -2644,16 +2655,16 @@
         <v>26</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P35" s="52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
@@ -2666,16 +2677,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P36" s="52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q36" s="52"/>
       <c r="R36" s="52"/>
@@ -2688,16 +2699,16 @@
         <v>26</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P37" s="52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q37" s="52"/>
       <c r="R37" s="52"/>
@@ -2710,16 +2721,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="P38" s="52" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="P38" s="76" t="s">
+        <v>214</v>
       </c>
       <c r="Q38" s="52"/>
       <c r="R38" s="52"/>
@@ -2732,16 +2743,16 @@
         <v>26</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P39" s="52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q39" s="52"/>
       <c r="R39" s="52"/>
@@ -2753,17 +2764,17 @@
       <c r="A40" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="74" t="s">
-        <v>216</v>
+      <c r="B40" s="71" t="s">
+        <v>202</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="P40" s="75" t="s">
-        <v>218</v>
+        <v>155</v>
+      </c>
+      <c r="G40" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="P40" s="72" t="s">
+        <v>204</v>
       </c>
       <c r="Q40" s="52"/>
       <c r="R40" s="52"/>
@@ -2776,19 +2787,19 @@
         <v>27</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J41" s="55" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M41" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2796,10 +2807,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2807,16 +2818,16 @@
         <v>26</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="I43" s="75" t="s">
+        <v>212</v>
       </c>
       <c r="J43" s="19" t="s">
         <v>20</v>
@@ -2827,16 +2838,16 @@
         <v>26</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="I44" s="75" t="s">
+        <v>210</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>20</v>
@@ -2847,19 +2858,19 @@
         <v>26</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="I45" s="75" t="s">
+        <v>211</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2873,19 +2884,19 @@
         <v>27</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="J47" s="19" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2893,13 +2904,13 @@
         <v>27</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2907,13 +2918,13 @@
         <v>27</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2921,10 +2932,10 @@
         <v>28</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J50" s="19" t="s">
         <v>20</v>
@@ -2941,10 +2952,10 @@
         <v>30</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>67</v>
+        <v>98</v>
+      </c>
+      <c r="I51" s="75" t="s">
+        <v>210</v>
       </c>
       <c r="J51" s="15"/>
     </row>
@@ -3118,24 +3129,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C16" s="57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>139</v>
+      <c r="B19" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3164,7 +3175,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
@@ -3179,10 +3190,10 @@
         <v>37</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,1597 +3248,1597 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B332" s="41"/>
       <c r="C332" s="41"/>
@@ -4836,7 +4847,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B333" s="41"/>
       <c r="C333" s="41"/>
@@ -4845,7 +4856,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B334" s="41"/>
       <c r="C334" s="41"/>
@@ -4854,7 +4865,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B335" s="41"/>
       <c r="C335" s="41"/>
@@ -4863,7 +4874,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B336" s="41"/>
       <c r="C336" s="41"/>
@@ -4872,7 +4883,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B337" s="41"/>
       <c r="C337" s="41"/>
@@ -4881,7 +4892,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B338" s="41"/>
       <c r="C338" s="41"/>
@@ -4890,7 +4901,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B339" s="41"/>
       <c r="C339" s="41"/>
@@ -4899,7 +4910,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B340" s="41"/>
       <c r="C340" s="41"/>
@@ -4908,7 +4919,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B341" s="41"/>
       <c r="C341" s="41"/>
@@ -4917,7 +4928,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B342" s="41"/>
       <c r="C342" s="41"/>
@@ -4926,7 +4937,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B343" s="41"/>
       <c r="C343" s="41"/>
@@ -4935,7 +4946,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B344" s="41"/>
       <c r="C344" s="41"/>
@@ -4944,7 +4955,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B345" s="41"/>
       <c r="C345" s="41"/>
@@ -4953,7 +4964,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B346" s="41"/>
       <c r="C346" s="41"/>
@@ -4962,7 +4973,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B347" s="41"/>
       <c r="C347" s="41"/>
@@ -4971,7 +4982,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B348" s="41"/>
       <c r="C348" s="41"/>
@@ -4980,7 +4991,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B349" s="41"/>
       <c r="C349" s="41"/>
@@ -4989,7 +5000,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B350" s="41"/>
       <c r="C350" s="41"/>
@@ -4998,7 +5009,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B351" s="41"/>
       <c r="C351" s="41"/>
@@ -5007,7 +5018,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B352" s="41"/>
       <c r="C352" s="41"/>
@@ -5016,7 +5027,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B353" s="41"/>
       <c r="C353" s="41"/>
@@ -5025,7 +5036,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B354" s="41"/>
       <c r="C354" s="41"/>
@@ -5034,7 +5045,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B355" s="41"/>
       <c r="C355" s="41"/>
@@ -5043,7 +5054,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B356" s="41"/>
       <c r="C356" s="41"/>
@@ -5052,7 +5063,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B357" s="41"/>
       <c r="C357" s="41"/>
@@ -5061,7 +5072,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B358" s="41"/>
       <c r="C358" s="41"/>
@@ -5070,7 +5081,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B359" s="41"/>
       <c r="C359" s="41"/>
@@ -5079,7 +5090,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B360" s="41"/>
       <c r="C360" s="41"/>
@@ -5088,7 +5099,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B361" s="41"/>
       <c r="C361" s="41"/>
@@ -5097,7 +5108,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B362" s="41"/>
       <c r="C362" s="41"/>
@@ -5106,7 +5117,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B363" s="41"/>
       <c r="C363" s="41"/>
@@ -5115,7 +5126,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B364" s="41"/>
       <c r="C364" s="41"/>
@@ -5124,7 +5135,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B365" s="41"/>
       <c r="C365" s="41"/>
@@ -5133,7 +5144,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B366" s="41"/>
       <c r="C366" s="41"/>
@@ -5142,7 +5153,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B367" s="41"/>
       <c r="C367" s="41"/>
@@ -5151,7 +5162,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B368" s="41"/>
       <c r="C368" s="41"/>
@@ -5160,7 +5171,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B369" s="41"/>
       <c r="C369" s="41"/>
@@ -5169,7 +5180,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B370" s="41"/>
       <c r="C370" s="41"/>
@@ -5178,7 +5189,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B371" s="41"/>
       <c r="C371" s="41"/>
@@ -5187,7 +5198,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B372" s="41"/>
       <c r="C372" s="41"/>
@@ -5196,7 +5207,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B373" s="41"/>
       <c r="C373" s="41"/>
@@ -5205,7 +5216,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B374" s="41"/>
       <c r="C374" s="41"/>
@@ -5214,7 +5225,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B375" s="41"/>
       <c r="C375" s="41"/>
@@ -5223,7 +5234,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B376" s="41"/>
       <c r="C376" s="41"/>
@@ -5232,7 +5243,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B377" s="41"/>
       <c r="C377" s="41"/>
@@ -5241,1050 +5252,1050 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B584" s="42"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B585" s="42"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B586" s="42"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B587" s="42"/>
     </row>
@@ -6293,19 +6304,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B589" s="42"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B590" s="42"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B591" s="42"/>
     </row>
@@ -6314,13 +6325,13 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B593" s="42"/>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B594" s="42"/>
     </row>
@@ -6329,67 +6340,67 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B596" s="42"/>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B597" s="42"/>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B598" s="42"/>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B599" s="42"/>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B600" s="42"/>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B601" s="42"/>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B602" s="42"/>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B603" s="42"/>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B604" s="42"/>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B605" s="42"/>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B606" s="42"/>
     </row>
@@ -6398,13 +6409,13 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B608" s="42"/>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B609" s="42"/>
     </row>
@@ -6413,25 +6424,25 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B611" s="42"/>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B612" s="42"/>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B613" s="42"/>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B614" s="42"/>
     </row>
@@ -6440,31 +6451,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B616" s="42"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B617" s="42"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B618" s="42"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B619" s="42"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B620" s="42"/>
     </row>
@@ -6473,131 +6484,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B622" s="42"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B623" s="42"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B626" s="42"/>
       <c r="C626" s="43"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B627" s="42"/>
       <c r="C627" s="43"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B628" s="42"/>
       <c r="C628" s="43"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B629" s="42"/>
       <c r="C629" s="43"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B630" s="42"/>
       <c r="C630" s="43"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B631" s="42"/>
       <c r="C631" s="43"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B632" s="42"/>
       <c r="C632" s="43"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B633" s="42"/>
       <c r="C633" s="43"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B634" s="42"/>
       <c r="C634" s="43"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B635" s="42"/>
       <c r="C635" s="43"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B636" s="42"/>
       <c r="C636" s="43"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B637" s="42"/>
       <c r="C637" s="43"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B638" s="42"/>
       <c r="C638" s="43"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B639" s="42"/>
       <c r="C639" s="43"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B640" s="42"/>
       <c r="C640" s="43"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B641" s="42"/>
       <c r="C641" s="43"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B642" s="42"/>
       <c r="C642" s="43"/>
@@ -6609,168 +6620,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="43" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B644" s="44"/>
       <c r="C644" s="43"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="43" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B645" s="44"/>
       <c r="C645" s="43"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B647" s="42"/>
       <c r="C647" s="43"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B648" s="42"/>
       <c r="C648" s="43"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B649" s="42"/>
       <c r="C649" s="43"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B650" s="42"/>
       <c r="C650" s="43"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B651" s="42"/>
       <c r="C651" s="43"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B652" s="42"/>
       <c r="C652" s="43"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B653" s="42"/>
       <c r="C653" s="43"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B654" s="42"/>
       <c r="C654" s="43"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B655" s="42"/>
       <c r="C655" s="43"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B656" s="42"/>
       <c r="C656" s="43"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B657" s="42"/>
       <c r="C657" s="43"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B658" s="42"/>
       <c r="C658" s="43"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B659" s="42"/>
       <c r="C659" s="43"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B660" s="42"/>
       <c r="C660" s="43"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B661" s="42"/>
       <c r="C661" s="43"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B662" s="42"/>
       <c r="C662" s="43"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B663" s="42"/>
       <c r="C663" s="43"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B664" s="42"/>
       <c r="C664" s="43"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B665" s="42"/>
       <c r="C665" s="43"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B668" s="42"/>
       <c r="C668" s="43"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B669" s="42"/>
       <c r="C669" s="43"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B670" s="42"/>
       <c r="C670" s="43"/>
@@ -6787,483 +6798,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B673" s="42"/>
       <c r="C673" s="43"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B674" s="42"/>
       <c r="C674" s="43"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B675" s="42"/>
       <c r="C675" s="43"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B676" s="42"/>
       <c r="C676" s="43"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B677" s="42"/>
       <c r="C677" s="43"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B678" s="42"/>
       <c r="C678" s="43"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B679" s="42"/>
       <c r="C679" s="43"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B680" s="42"/>
       <c r="C680" s="43"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B681" s="42"/>
       <c r="C681" s="43"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B682" s="42"/>
       <c r="C682" s="43"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B684" s="42"/>
       <c r="C684" s="43"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B685" s="42"/>
       <c r="C685" s="43"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B686" s="42"/>
       <c r="C686" s="43"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B687" s="42"/>
       <c r="C687" s="43"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B688" s="42"/>
       <c r="C688" s="43"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B689" s="42"/>
       <c r="C689" s="43"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B690" s="42"/>
       <c r="C690" s="43"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B691" s="42"/>
       <c r="C691" s="43"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B692" s="42"/>
       <c r="C692" s="43"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B693" s="42"/>
       <c r="C693" s="43"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B694" s="42"/>
       <c r="C694" s="43"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B696" s="42"/>
       <c r="C696" s="43"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B697" s="42"/>
       <c r="C697" s="43"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B698" s="42"/>
       <c r="C698" s="43"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B699" s="42"/>
       <c r="C699" s="43"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B700" s="42"/>
       <c r="C700" s="43"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B701" s="42"/>
       <c r="C701" s="43"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B702" s="42"/>
       <c r="C702" s="43"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B703" s="42"/>
       <c r="C703" s="43"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B704" s="42"/>
       <c r="C704" s="43"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B705" s="42"/>
       <c r="C705" s="43"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B706" s="42"/>
       <c r="C706" s="43"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B707" s="42"/>
       <c r="C707" s="43"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B709" s="42"/>
       <c r="C709" s="43"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B710" s="42"/>
       <c r="C710" s="43"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B711" s="42"/>
       <c r="C711" s="43"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B712" s="42"/>
       <c r="C712" s="43"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B714" s="42"/>
       <c r="C714" s="43"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B715" s="42"/>
       <c r="C715" s="43"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B716" s="42"/>
       <c r="C716" s="43"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B717" s="42"/>
       <c r="C717" s="43"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B718" s="42"/>
       <c r="C718" s="43"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B719" s="42"/>
       <c r="C719" s="43"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B720" s="42"/>
       <c r="C720" s="43"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B721" s="42"/>
       <c r="C721" s="43"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B722" s="42"/>
       <c r="C722" s="43"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B723" s="42"/>
       <c r="C723" s="43"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B724" s="42"/>
       <c r="C724" s="43"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B725" s="42"/>
       <c r="C725" s="43"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B726" s="42"/>
       <c r="C726" s="43"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B727" s="42"/>
       <c r="C727" s="43"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B728" s="42"/>
       <c r="C728" s="43"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B729" s="42"/>
       <c r="C729" s="43"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B730" s="42"/>
       <c r="C730" s="43"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B731" s="42"/>
       <c r="C731" s="43"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B732" s="42"/>
       <c r="C732" s="43"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B733" s="42"/>
       <c r="C733" s="43"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B734" s="42"/>
       <c r="C734" s="43"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B735" s="42"/>
       <c r="C735" s="43"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B736" s="42"/>
       <c r="C736" s="43"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B737" s="42"/>
       <c r="C737" s="43"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B738" s="42"/>
       <c r="C738" s="43"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B739" s="42"/>
       <c r="C739" s="43"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B740" s="42"/>
       <c r="C740" s="43"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B742" s="42"/>
       <c r="C742" s="43"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B743" s="42"/>
       <c r="C743" s="43"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B744" s="42"/>
       <c r="C744" s="43"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B745" s="42"/>
       <c r="C745" s="43"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B746" s="42"/>
       <c r="C746" s="43"/>
@@ -7275,63 +7286,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B748" s="42"/>
       <c r="C748" s="43"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B749" s="42"/>
       <c r="C749" s="43"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B750" s="42"/>
       <c r="C750" s="43"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B751" s="42"/>
       <c r="C751" s="43"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B752" s="42"/>
       <c r="C752" s="43"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B753" s="42"/>
       <c r="C753" s="43"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B754" s="42"/>
       <c r="C754" s="43"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B755" s="42"/>
       <c r="C755" s="43"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B756" s="42"/>
       <c r="C756" s="43"/>
@@ -7343,112 +7354,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B758" s="42"/>
       <c r="C758" s="43"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B759" s="42"/>
       <c r="C759" s="43"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B760" s="42"/>
       <c r="C760" s="43"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B761" s="42"/>
       <c r="C761" s="43"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B762" s="42"/>
       <c r="C762" s="43"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B763" s="42"/>
       <c r="C763" s="43"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B764" s="42"/>
       <c r="C764" s="43"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B765" s="42"/>
       <c r="C765" s="43"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B766" s="42"/>
       <c r="C766" s="43"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B767" s="42"/>
       <c r="C767" s="43"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B768" s="42"/>
       <c r="C768" s="43"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B769" s="42"/>
       <c r="C769" s="43"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B770" s="42"/>
       <c r="C770" s="43"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B771" s="42"/>
       <c r="C771" s="43"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B772" s="42"/>
       <c r="C772" s="43"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B773" s="42"/>
       <c r="C773" s="43"/>
@@ -7460,147 +7471,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B775" s="42"/>
       <c r="C775" s="43"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B776" s="42"/>
       <c r="C776" s="43"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B777" s="42"/>
       <c r="C777" s="43"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B778" s="42"/>
       <c r="C778" s="43"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B779" s="42"/>
       <c r="C779" s="43"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B780" s="42"/>
       <c r="C780" s="43"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B781" s="42"/>
       <c r="C781" s="43"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B782" s="42"/>
       <c r="C782" s="43"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B783" s="42"/>
       <c r="C783" s="43"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B784" s="42"/>
       <c r="C784" s="43"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B785" s="42"/>
       <c r="C785" s="43"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B786" s="42"/>
       <c r="C786" s="43"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B787" s="42"/>
       <c r="C787" s="43"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B788" s="42"/>
       <c r="C788" s="43"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B789" s="42"/>
       <c r="C789" s="43"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B790" s="42"/>
       <c r="C790" s="43"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B791" s="42"/>
       <c r="C791" s="43"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B792" s="42"/>
       <c r="C792" s="43"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B793" s="42"/>
       <c r="C793" s="43"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B794" s="42"/>
       <c r="C794" s="43"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B795" s="42"/>
       <c r="C795" s="43"/>
@@ -7612,14 +7623,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B797" s="42"/>
       <c r="C797" s="43"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B798" s="42"/>
       <c r="C798" s="43"/>
@@ -7631,21 +7642,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B800" s="42"/>
       <c r="C800" s="43"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B801" s="42"/>
       <c r="C801" s="43"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B803" s="42"/>
       <c r="C803" s="43"/>
@@ -7655,7 +7666,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B804" s="42"/>
       <c r="C804" s="43"/>
@@ -7665,7 +7676,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B805" s="42"/>
       <c r="C805" s="43"/>
@@ -7675,7 +7686,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B806" s="42"/>
       <c r="C806" s="43"/>
@@ -7685,7 +7696,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B807" s="42"/>
       <c r="C807" s="43"/>
@@ -7695,7 +7706,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B808" s="42"/>
       <c r="C808" s="43"/>
@@ -7705,7 +7716,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B809" s="42"/>
       <c r="C809" s="43"/>
@@ -7715,7 +7726,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B810" s="42"/>
       <c r="C810" s="43"/>
@@ -7725,7 +7736,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B811" s="42"/>
       <c r="C811" s="43"/>
@@ -7735,7 +7746,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B812" s="42"/>
       <c r="C812" s="43"/>
@@ -7745,204 +7756,204 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B814" s="42"/>
       <c r="C814" s="43"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B815" s="42"/>
       <c r="C815" s="43"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B816" s="42"/>
       <c r="C816" s="43"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B817" s="42"/>
       <c r="C817" s="43"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B818" s="42"/>
       <c r="C818" s="43"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B819" s="42"/>
       <c r="C819" s="43"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B820" s="42"/>
       <c r="C820" s="43"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B822" s="42"/>
       <c r="C822" s="43"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B823" s="42"/>
       <c r="C823" s="43"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B824" s="42"/>
       <c r="C824" s="43"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B825" s="42"/>
       <c r="C825" s="43"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B826" s="42"/>
       <c r="C826" s="43"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B828" s="42"/>
       <c r="C828" s="45"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B829" s="42"/>
       <c r="C829" s="43"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B830" s="42"/>
       <c r="C830" s="43"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B831" s="42"/>
       <c r="C831" s="43"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B832" s="42"/>
       <c r="C832" s="43"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B833" s="42"/>
       <c r="C833" s="43"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B834" s="42"/>
       <c r="C834" s="43"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B835" s="42"/>
       <c r="C835" s="43"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B837" s="42"/>
       <c r="C837" s="45"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B838" s="42"/>
       <c r="C838" s="43"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B839" s="42"/>
       <c r="C839" s="43"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B840" s="42"/>
       <c r="C840" s="43"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B842" s="42"/>
       <c r="C842" s="43"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B843" s="42"/>
       <c r="C843" s="43"/>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="40" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="40" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="40" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="40" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7956,7 +7967,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7980,7 +7991,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>23</v>
@@ -7988,19 +7999,17 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>146</v>
+        <v>199</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>207</v>
       </c>
       <c r="C2" s="30">
-        <v>2022092001</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>207</v>
+        <v>2023316</v>
+      </c>
+      <c r="D2" s="70"/>
+      <c r="E2" s="69" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -8011,11 +8020,8 @@
       <c r="E5" s="49"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://cavateco.terrafirma.co.mz:8080/las_zambezia/submission" xr:uid="{263D280A-A125-4B1A-B1CD-E9B185A2EB61}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/CaVaTeCo/form_b_lideres.xlsx
+++ b/xlsx/CaVaTeCo/form_b_lideres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_wcs_nampula\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25FD2F-683E-4E66-92D3-5132246B9542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE2431-0FE6-43B2-87F1-EB0FAAFEAD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="221">
   <si>
     <t>type</t>
   </si>
@@ -441,12 +441,6 @@
     <t>village_families</t>
   </si>
   <si>
-    <t>name_id_key</t>
-  </si>
-  <si>
-    <t>enumerator_name</t>
-  </si>
-  <si>
     <t>submission_url</t>
   </si>
   <si>
@@ -465,13 +459,7 @@
     <t>&lt;br/&gt; &lt;h1&gt;Cadeia de Valor de Terra Comunitária&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;${project}&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
   </si>
   <si>
-    <t>select_one villages</t>
-  </si>
-  <si>
     <t>village_id</t>
-  </si>
-  <si>
-    <t>Selecionar o povoado</t>
   </si>
   <si>
     <t>media::audio</t>
@@ -596,12 +584,6 @@
     <t>Assinatura da pessoa</t>
   </si>
   <si>
-    <t>villages</t>
-  </si>
-  <si>
-    <t>village_id_key</t>
-  </si>
-  <si>
     <t>village_name</t>
   </si>
   <si>
@@ -617,9 +599,6 @@
     <t>Qual é o numero de habitantes deste povoado (população)?</t>
   </si>
   <si>
-    <t>select_one enum_name_id</t>
-  </si>
-  <si>
     <t>enum_name_id</t>
   </si>
   <si>
@@ -639,9 +618,6 @@
   </si>
   <si>
     <t>Form B2 - Recolha de Dados - Lideres</t>
-  </si>
-  <si>
-    <t>concat('Village','_',${village_name})</t>
   </si>
   <si>
     <t>. &lt;= today()</t>
@@ -692,22 +668,43 @@
     <t>terrafirma_wcs.jpg</t>
   </si>
   <si>
-    <t>search('enum_names_wcs_nampula', 'startswith', 'enumerator_name', ${searchtext})</t>
-  </si>
-  <si>
-    <t>pulldata('enum_names_wcs_nampula', 'enumerator_name', 'name_id_key', ${enum_name_id})</t>
-  </si>
-  <si>
-    <t>search('povoado_names_wcs_nampula', 'matches', 'post_id', ${post_id})</t>
-  </si>
-  <si>
-    <t>pulldata('povoado_names_wcs_nampula', 'village_name',  'village_id_key', ${village_id})</t>
-  </si>
-  <si>
     <t>"WCS - Futuro Azul"</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
+  </si>
+  <si>
+    <t>select_one_from_file enum_names.csv</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext})</t>
+  </si>
+  <si>
+    <t>instance('enum_names')/root/item[name=${enum_name_id}]/enumerator_name</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do povoado para filtrar a lista de povoados já registados:</t>
+  </si>
+  <si>
+    <t>select_one_from_file village_names.csv</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Se o nome &lt;span style="color:#FF6347"&gt;não aparece&lt;/span&gt; em baixo, quer dizer que ainda não foi feito o registo do povoado, ou que houve problema na actualização do sistema. Não será possível continuar. Deve conferir o registo de povoado através do 'Formulário B - Povoados', e depois actualizar os dados, e voltar a repetir o registo de lider mais tarde.  Pode fechar o Formulário sem gravar.</t>
+  </si>
+  <si>
+    <t>searchtext_1</t>
+  </si>
+  <si>
+    <t>Selecionar o nome de povoado:</t>
+  </si>
+  <si>
+    <t>concat('Village Leader','_',${village_name})</t>
+  </si>
+  <si>
+    <t>instance('village_names')/root/item[name=${village_id}]/village_name</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext_1})</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1302,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1410,9 +1407,6 @@
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1442,10 +1436,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1453,25 +1443,28 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="242" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2064,39 +2057,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.09765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.3984375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="40.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.25" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.8984375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="40.69921875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.19921875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2143,19 +2136,19 @@
         <v>12</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +2156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>87</v>
       </c>
@@ -2174,7 +2167,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>76</v>
       </c>
@@ -2185,29 +2178,29 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2219,94 +2212,92 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="77" t="s">
-        <v>215</v>
+      <c r="O9" s="73" t="s">
+        <v>207</v>
       </c>
       <c r="P9" s="47"/>
     </row>
-    <row r="10" spans="1:19" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:19" s="26" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="26" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="C12" s="70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="J13" s="61" t="s">
+      <c r="B13" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="F14" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="J14" s="61" t="s">
+    <row r="14" spans="1:19" s="60" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+    </row>
+    <row r="15" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="N15" s="65" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2317,7 +2308,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>20</v>
@@ -2326,7 +2317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>59</v>
       </c>
@@ -2343,7 +2334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>61</v>
       </c>
@@ -2363,7 +2354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>86</v>
       </c>
@@ -2383,587 +2374,603 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="49" t="s">
+    <row r="20" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="60" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="N22" s="60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:19" s="54" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="C27" s="70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="L21" s="65"/>
-      <c r="N21" s="65" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="30" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="P34" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="P35" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="P36" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="P37" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="P38" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="P39" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="P40" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="P41" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="M42" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:19" s="55" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="P28" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="P29" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="P30" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="P31" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="P32" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="P33" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="P34" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="P35" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="P36" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="P37" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="P38" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="P39" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="P40" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="56" t="s">
+      <c r="B43" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C43" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J41" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="M41" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="I44" s="75" t="s">
-        <v>210</v>
+      <c r="I44" s="71" t="s">
+        <v>204</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H46" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="L45" s="19" t="s">
+      <c r="I46" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="L46" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="23"/>
-    </row>
-    <row r="47" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23"/>
+    </row>
+    <row r="48" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>130</v>
+        <v>81</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="M48" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M49" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B51" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J51" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="35" t="s">
+      <c r="H52" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I51" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="I52" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B53" s="21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2981,18 +2988,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="4"/>
+    <col min="3" max="3" width="54.8984375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.8984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3006,15 +3013,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>38</v>
       </c>
@@ -3025,7 +3032,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>38</v>
       </c>
@@ -3047,7 +3054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>38</v>
       </c>
@@ -3058,7 +3065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -3069,7 +3076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>38</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>38</v>
       </c>
@@ -3091,7 +3098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>38</v>
       </c>
@@ -3102,7 +3109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
@@ -3113,7 +3120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
@@ -3124,30 +3131,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>135</v>
-      </c>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="56"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -3160,20 +3155,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E68464-4D9C-4516-A343-72D6538D40BA}">
   <dimension ref="A1:M848"/>
   <sheetViews>
-    <sheetView topLeftCell="A823" workbookViewId="0">
+    <sheetView topLeftCell="A523" workbookViewId="0">
       <selection activeCell="B856" sqref="B856"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="40" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="40"/>
-    <col min="6" max="6" width="34.875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="34.8984375" style="40" customWidth="1"/>
     <col min="7" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>101</v>
       </c>
@@ -3196,1647 +3191,1647 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="40" t="s">
         <v>103</v>
       </c>
@@ -4845,7 +4840,7 @@
       <c r="D332" s="41"/>
       <c r="E332" s="41"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="40" t="s">
         <v>103</v>
       </c>
@@ -4854,7 +4849,7 @@
       <c r="D333" s="41"/>
       <c r="E333" s="41"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="40" t="s">
         <v>103</v>
       </c>
@@ -4863,7 +4858,7 @@
       <c r="D334" s="41"/>
       <c r="E334" s="41"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="40" t="s">
         <v>103</v>
       </c>
@@ -4872,7 +4867,7 @@
       <c r="D335" s="41"/>
       <c r="E335" s="41"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="40" t="s">
         <v>103</v>
       </c>
@@ -4881,7 +4876,7 @@
       <c r="D336" s="41"/>
       <c r="E336" s="41"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="40" t="s">
         <v>103</v>
       </c>
@@ -4890,7 +4885,7 @@
       <c r="D337" s="41"/>
       <c r="E337" s="41"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="40" t="s">
         <v>103</v>
       </c>
@@ -4899,7 +4894,7 @@
       <c r="D338" s="41"/>
       <c r="E338" s="41"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="40" t="s">
         <v>103</v>
       </c>
@@ -4908,7 +4903,7 @@
       <c r="D339" s="41"/>
       <c r="E339" s="41"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="40" t="s">
         <v>103</v>
       </c>
@@ -4917,7 +4912,7 @@
       <c r="D340" s="41"/>
       <c r="E340" s="41"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="40" t="s">
         <v>103</v>
       </c>
@@ -4926,7 +4921,7 @@
       <c r="D341" s="41"/>
       <c r="E341" s="41"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="40" t="s">
         <v>103</v>
       </c>
@@ -4935,7 +4930,7 @@
       <c r="D342" s="41"/>
       <c r="E342" s="41"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="40" t="s">
         <v>103</v>
       </c>
@@ -4944,7 +4939,7 @@
       <c r="D343" s="41"/>
       <c r="E343" s="41"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="40" t="s">
         <v>103</v>
       </c>
@@ -4953,7 +4948,7 @@
       <c r="D344" s="41"/>
       <c r="E344" s="41"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="40" t="s">
         <v>103</v>
       </c>
@@ -4962,7 +4957,7 @@
       <c r="D345" s="41"/>
       <c r="E345" s="41"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="40" t="s">
         <v>103</v>
       </c>
@@ -4971,7 +4966,7 @@
       <c r="D346" s="41"/>
       <c r="E346" s="41"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="40" t="s">
         <v>103</v>
       </c>
@@ -4980,7 +4975,7 @@
       <c r="D347" s="41"/>
       <c r="E347" s="41"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="40" t="s">
         <v>103</v>
       </c>
@@ -4989,7 +4984,7 @@
       <c r="D348" s="41"/>
       <c r="E348" s="41"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="40" t="s">
         <v>103</v>
       </c>
@@ -4998,7 +4993,7 @@
       <c r="D349" s="41"/>
       <c r="E349" s="41"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="40" t="s">
         <v>103</v>
       </c>
@@ -5007,7 +5002,7 @@
       <c r="D350" s="41"/>
       <c r="E350" s="41"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="40" t="s">
         <v>103</v>
       </c>
@@ -5016,7 +5011,7 @@
       <c r="D351" s="41"/>
       <c r="E351" s="41"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="40" t="s">
         <v>103</v>
       </c>
@@ -5025,7 +5020,7 @@
       <c r="D352" s="41"/>
       <c r="E352" s="41"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="40" t="s">
         <v>103</v>
       </c>
@@ -5034,7 +5029,7 @@
       <c r="D353" s="41"/>
       <c r="E353" s="41"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="40" t="s">
         <v>103</v>
       </c>
@@ -5043,7 +5038,7 @@
       <c r="D354" s="41"/>
       <c r="E354" s="41"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="40" t="s">
         <v>103</v>
       </c>
@@ -5052,7 +5047,7 @@
       <c r="D355" s="41"/>
       <c r="E355" s="41"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="40" t="s">
         <v>103</v>
       </c>
@@ -5061,7 +5056,7 @@
       <c r="D356" s="41"/>
       <c r="E356" s="41"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="40" t="s">
         <v>103</v>
       </c>
@@ -5070,7 +5065,7 @@
       <c r="D357" s="41"/>
       <c r="E357" s="41"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="40" t="s">
         <v>103</v>
       </c>
@@ -5079,7 +5074,7 @@
       <c r="D358" s="41"/>
       <c r="E358" s="41"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="40" t="s">
         <v>103</v>
       </c>
@@ -5088,7 +5083,7 @@
       <c r="D359" s="41"/>
       <c r="E359" s="41"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="40" t="s">
         <v>103</v>
       </c>
@@ -5097,7 +5092,7 @@
       <c r="D360" s="41"/>
       <c r="E360" s="41"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="40" t="s">
         <v>103</v>
       </c>
@@ -5106,7 +5101,7 @@
       <c r="D361" s="41"/>
       <c r="E361" s="41"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="40" t="s">
         <v>103</v>
       </c>
@@ -5115,7 +5110,7 @@
       <c r="D362" s="41"/>
       <c r="E362" s="41"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="40" t="s">
         <v>103</v>
       </c>
@@ -5124,7 +5119,7 @@
       <c r="D363" s="41"/>
       <c r="E363" s="41"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="40" t="s">
         <v>103</v>
       </c>
@@ -5133,7 +5128,7 @@
       <c r="D364" s="41"/>
       <c r="E364" s="41"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="40" t="s">
         <v>103</v>
       </c>
@@ -5142,7 +5137,7 @@
       <c r="D365" s="41"/>
       <c r="E365" s="41"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="40" t="s">
         <v>103</v>
       </c>
@@ -5151,7 +5146,7 @@
       <c r="D366" s="41"/>
       <c r="E366" s="41"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="40" t="s">
         <v>103</v>
       </c>
@@ -5160,7 +5155,7 @@
       <c r="D367" s="41"/>
       <c r="E367" s="41"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="40" t="s">
         <v>103</v>
       </c>
@@ -5169,7 +5164,7 @@
       <c r="D368" s="41"/>
       <c r="E368" s="41"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="40" t="s">
         <v>103</v>
       </c>
@@ -5178,7 +5173,7 @@
       <c r="D369" s="41"/>
       <c r="E369" s="41"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="40" t="s">
         <v>103</v>
       </c>
@@ -5187,7 +5182,7 @@
       <c r="D370" s="41"/>
       <c r="E370" s="41"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="40" t="s">
         <v>103</v>
       </c>
@@ -5196,7 +5191,7 @@
       <c r="D371" s="41"/>
       <c r="E371" s="41"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="40" t="s">
         <v>103</v>
       </c>
@@ -5205,7 +5200,7 @@
       <c r="D372" s="41"/>
       <c r="E372" s="41"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="40" t="s">
         <v>103</v>
       </c>
@@ -5214,7 +5209,7 @@
       <c r="D373" s="41"/>
       <c r="E373" s="41"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="40" t="s">
         <v>103</v>
       </c>
@@ -5223,7 +5218,7 @@
       <c r="D374" s="41"/>
       <c r="E374" s="41"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="40" t="s">
         <v>103</v>
       </c>
@@ -5232,7 +5227,7 @@
       <c r="D375" s="41"/>
       <c r="E375" s="41"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="40" t="s">
         <v>103</v>
       </c>
@@ -5241,7 +5236,7 @@
       <c r="D376" s="41"/>
       <c r="E376" s="41"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="40" t="s">
         <v>103</v>
       </c>
@@ -5250,2411 +5245,2411 @@
       <c r="D377" s="41"/>
       <c r="E377" s="41"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B584" s="42"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B585" s="42"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B586" s="42"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B587" s="42"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B588" s="42"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="40" t="s">
         <v>105</v>
       </c>
       <c r="B589" s="42"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="40" t="s">
         <v>105</v>
       </c>
       <c r="B590" s="42"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="40" t="s">
         <v>105</v>
       </c>
       <c r="B591" s="42"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B592" s="42"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="40" t="s">
         <v>106</v>
       </c>
       <c r="B593" s="42"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="40" t="s">
         <v>106</v>
       </c>
       <c r="B594" s="42"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B595" s="42"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B596" s="42"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B597" s="42"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B598" s="42"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B599" s="42"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B600" s="42"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B601" s="42"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B602" s="42"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B603" s="42"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B604" s="42"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B605" s="42"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B606" s="42"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B607" s="42"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B608" s="42"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B609" s="42"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B610" s="42"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B611" s="42"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B612" s="42"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B613" s="42"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B614" s="42"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B615" s="42"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B616" s="42"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B617" s="42"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B618" s="42"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B619" s="42"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B620" s="42"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B621" s="42"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B622" s="42"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B623" s="42"/>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B626" s="42"/>
       <c r="C626" s="43"/>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B627" s="42"/>
       <c r="C627" s="43"/>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B628" s="42"/>
       <c r="C628" s="43"/>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B629" s="42"/>
       <c r="C629" s="43"/>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B630" s="42"/>
       <c r="C630" s="43"/>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B631" s="42"/>
       <c r="C631" s="43"/>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B632" s="42"/>
       <c r="C632" s="43"/>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B633" s="42"/>
       <c r="C633" s="43"/>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B634" s="42"/>
       <c r="C634" s="43"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B635" s="42"/>
       <c r="C635" s="43"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B636" s="42"/>
       <c r="C636" s="43"/>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B637" s="42"/>
       <c r="C637" s="43"/>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B638" s="42"/>
       <c r="C638" s="43"/>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B639" s="42"/>
       <c r="C639" s="43"/>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B640" s="42"/>
       <c r="C640" s="43"/>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B641" s="42"/>
       <c r="C641" s="43"/>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B642" s="42"/>
       <c r="C642" s="43"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="43"/>
       <c r="B643" s="44"/>
       <c r="C643" s="43"/>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B644" s="44"/>
       <c r="C644" s="43"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B645" s="44"/>
       <c r="C645" s="43"/>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B647" s="42"/>
       <c r="C647" s="43"/>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B648" s="42"/>
       <c r="C648" s="43"/>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B649" s="42"/>
       <c r="C649" s="43"/>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B650" s="42"/>
       <c r="C650" s="43"/>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B651" s="42"/>
       <c r="C651" s="43"/>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B652" s="42"/>
       <c r="C652" s="43"/>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B653" s="42"/>
       <c r="C653" s="43"/>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B654" s="42"/>
       <c r="C654" s="43"/>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B655" s="42"/>
       <c r="C655" s="43"/>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B656" s="42"/>
       <c r="C656" s="43"/>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B657" s="42"/>
       <c r="C657" s="43"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B658" s="42"/>
       <c r="C658" s="43"/>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B659" s="42"/>
       <c r="C659" s="43"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B660" s="42"/>
       <c r="C660" s="43"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B661" s="42"/>
       <c r="C661" s="43"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B662" s="42"/>
       <c r="C662" s="43"/>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B663" s="42"/>
       <c r="C663" s="43"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B664" s="42"/>
       <c r="C664" s="43"/>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B665" s="42"/>
       <c r="C665" s="43"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="43" t="s">
         <v>114</v>
       </c>
       <c r="B668" s="42"/>
       <c r="C668" s="43"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="43" t="s">
         <v>114</v>
       </c>
       <c r="B669" s="42"/>
       <c r="C669" s="43"/>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="43" t="s">
         <v>114</v>
       </c>
       <c r="B670" s="42"/>
       <c r="C670" s="43"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="43"/>
       <c r="B671" s="42"/>
       <c r="C671" s="43"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="43"/>
       <c r="B672" s="42"/>
       <c r="C672" s="43"/>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B673" s="42"/>
       <c r="C673" s="43"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B674" s="42"/>
       <c r="C674" s="43"/>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B675" s="42"/>
       <c r="C675" s="43"/>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B676" s="42"/>
       <c r="C676" s="43"/>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B677" s="42"/>
       <c r="C677" s="43"/>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B678" s="42"/>
       <c r="C678" s="43"/>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B679" s="42"/>
       <c r="C679" s="43"/>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B680" s="42"/>
       <c r="C680" s="43"/>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B681" s="42"/>
       <c r="C681" s="43"/>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B682" s="42"/>
       <c r="C682" s="43"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B684" s="42"/>
       <c r="C684" s="43"/>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B685" s="42"/>
       <c r="C685" s="43"/>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B686" s="42"/>
       <c r="C686" s="43"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B687" s="42"/>
       <c r="C687" s="43"/>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B688" s="42"/>
       <c r="C688" s="43"/>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B689" s="42"/>
       <c r="C689" s="43"/>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B690" s="42"/>
       <c r="C690" s="43"/>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B691" s="42"/>
       <c r="C691" s="43"/>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B692" s="42"/>
       <c r="C692" s="43"/>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B693" s="42"/>
       <c r="C693" s="43"/>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B694" s="42"/>
       <c r="C694" s="43"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B696" s="42"/>
       <c r="C696" s="43"/>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B697" s="42"/>
       <c r="C697" s="43"/>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B698" s="42"/>
       <c r="C698" s="43"/>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B699" s="42"/>
       <c r="C699" s="43"/>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B700" s="42"/>
       <c r="C700" s="43"/>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B701" s="42"/>
       <c r="C701" s="43"/>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B702" s="42"/>
       <c r="C702" s="43"/>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B703" s="42"/>
       <c r="C703" s="43"/>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B704" s="42"/>
       <c r="C704" s="43"/>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B705" s="42"/>
       <c r="C705" s="43"/>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B706" s="42"/>
       <c r="C706" s="43"/>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B707" s="42"/>
       <c r="C707" s="43"/>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B709" s="42"/>
       <c r="C709" s="43"/>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B710" s="42"/>
       <c r="C710" s="43"/>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B711" s="42"/>
       <c r="C711" s="43"/>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B712" s="42"/>
       <c r="C712" s="43"/>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B714" s="42"/>
       <c r="C714" s="43"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B715" s="42"/>
       <c r="C715" s="43"/>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B716" s="42"/>
       <c r="C716" s="43"/>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B717" s="42"/>
       <c r="C717" s="43"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B718" s="42"/>
       <c r="C718" s="43"/>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B719" s="42"/>
       <c r="C719" s="43"/>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B720" s="42"/>
       <c r="C720" s="43"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B721" s="42"/>
       <c r="C721" s="43"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B722" s="42"/>
       <c r="C722" s="43"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B723" s="42"/>
       <c r="C723" s="43"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B724" s="42"/>
       <c r="C724" s="43"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B725" s="42"/>
       <c r="C725" s="43"/>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B726" s="42"/>
       <c r="C726" s="43"/>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B727" s="42"/>
       <c r="C727" s="43"/>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B728" s="42"/>
       <c r="C728" s="43"/>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B729" s="42"/>
       <c r="C729" s="43"/>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B730" s="42"/>
       <c r="C730" s="43"/>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B731" s="42"/>
       <c r="C731" s="43"/>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B732" s="42"/>
       <c r="C732" s="43"/>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B733" s="42"/>
       <c r="C733" s="43"/>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B734" s="42"/>
       <c r="C734" s="43"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B735" s="42"/>
       <c r="C735" s="43"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B736" s="42"/>
       <c r="C736" s="43"/>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B737" s="42"/>
       <c r="C737" s="43"/>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B738" s="42"/>
       <c r="C738" s="43"/>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B739" s="42"/>
       <c r="C739" s="43"/>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B740" s="42"/>
       <c r="C740" s="43"/>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B742" s="42"/>
       <c r="C742" s="43"/>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B743" s="42"/>
       <c r="C743" s="43"/>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B744" s="42"/>
       <c r="C744" s="43"/>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B745" s="42"/>
       <c r="C745" s="43"/>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B746" s="42"/>
       <c r="C746" s="43"/>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="43"/>
       <c r="B747" s="42"/>
       <c r="C747" s="43"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B748" s="42"/>
       <c r="C748" s="43"/>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B749" s="42"/>
       <c r="C749" s="43"/>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B750" s="42"/>
       <c r="C750" s="43"/>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B751" s="42"/>
       <c r="C751" s="43"/>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B752" s="42"/>
       <c r="C752" s="43"/>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B753" s="42"/>
       <c r="C753" s="43"/>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B754" s="42"/>
       <c r="C754" s="43"/>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B755" s="42"/>
       <c r="C755" s="43"/>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B756" s="42"/>
       <c r="C756" s="43"/>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="43"/>
       <c r="B757" s="42"/>
       <c r="C757" s="43"/>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B758" s="42"/>
       <c r="C758" s="43"/>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B759" s="42"/>
       <c r="C759" s="43"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B760" s="42"/>
       <c r="C760" s="43"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B761" s="42"/>
       <c r="C761" s="43"/>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B762" s="42"/>
       <c r="C762" s="43"/>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B763" s="42"/>
       <c r="C763" s="43"/>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B764" s="42"/>
       <c r="C764" s="43"/>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B765" s="42"/>
       <c r="C765" s="43"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B766" s="42"/>
       <c r="C766" s="43"/>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B767" s="42"/>
       <c r="C767" s="43"/>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B768" s="42"/>
       <c r="C768" s="43"/>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B769" s="42"/>
       <c r="C769" s="43"/>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B770" s="42"/>
       <c r="C770" s="43"/>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B771" s="42"/>
       <c r="C771" s="43"/>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B772" s="42"/>
       <c r="C772" s="43"/>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B773" s="42"/>
       <c r="C773" s="43"/>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="43"/>
       <c r="B774" s="42"/>
       <c r="C774" s="43"/>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B775" s="42"/>
       <c r="C775" s="43"/>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B776" s="42"/>
       <c r="C776" s="43"/>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B777" s="42"/>
       <c r="C777" s="43"/>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B778" s="42"/>
       <c r="C778" s="43"/>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B779" s="42"/>
       <c r="C779" s="43"/>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B780" s="42"/>
       <c r="C780" s="43"/>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B781" s="42"/>
       <c r="C781" s="43"/>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B782" s="42"/>
       <c r="C782" s="43"/>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B783" s="42"/>
       <c r="C783" s="43"/>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B784" s="42"/>
       <c r="C784" s="43"/>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B785" s="42"/>
       <c r="C785" s="43"/>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B786" s="42"/>
       <c r="C786" s="43"/>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B787" s="42"/>
       <c r="C787" s="43"/>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B788" s="42"/>
       <c r="C788" s="43"/>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B789" s="42"/>
       <c r="C789" s="43"/>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B790" s="42"/>
       <c r="C790" s="43"/>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B791" s="42"/>
       <c r="C791" s="43"/>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B792" s="42"/>
       <c r="C792" s="43"/>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B793" s="42"/>
       <c r="C793" s="43"/>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B794" s="42"/>
       <c r="C794" s="43"/>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B795" s="42"/>
       <c r="C795" s="43"/>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="43"/>
       <c r="B796" s="42"/>
       <c r="C796" s="43"/>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B797" s="42"/>
       <c r="C797" s="43"/>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B798" s="42"/>
       <c r="C798" s="43"/>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="43"/>
       <c r="B799" s="42"/>
       <c r="C799" s="43"/>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B800" s="42"/>
       <c r="C800" s="43"/>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A801" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B801" s="42"/>
       <c r="C801" s="43"/>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A803" s="43" t="s">
         <v>127</v>
       </c>
@@ -7664,7 +7659,7 @@
       <c r="L803" s="42"/>
       <c r="M803" s="43"/>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A804" s="43" t="s">
         <v>127</v>
       </c>
@@ -7674,7 +7669,7 @@
       <c r="L804" s="42"/>
       <c r="M804" s="43"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A805" s="43" t="s">
         <v>127</v>
       </c>
@@ -7684,7 +7679,7 @@
       <c r="L805" s="42"/>
       <c r="M805" s="43"/>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A806" s="43" t="s">
         <v>127</v>
       </c>
@@ -7694,7 +7689,7 @@
       <c r="L806" s="42"/>
       <c r="M806" s="43"/>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A807" s="43" t="s">
         <v>127</v>
       </c>
@@ -7704,7 +7699,7 @@
       <c r="L807" s="42"/>
       <c r="M807" s="43"/>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A808" s="43" t="s">
         <v>127</v>
       </c>
@@ -7714,7 +7709,7 @@
       <c r="L808" s="42"/>
       <c r="M808" s="43"/>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A809" s="43" t="s">
         <v>127</v>
       </c>
@@ -7724,7 +7719,7 @@
       <c r="L809" s="42"/>
       <c r="M809" s="43"/>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A810" s="43" t="s">
         <v>127</v>
       </c>
@@ -7734,7 +7729,7 @@
       <c r="L810" s="42"/>
       <c r="M810" s="43"/>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A811" s="43" t="s">
         <v>127</v>
       </c>
@@ -7744,7 +7739,7 @@
       <c r="L811" s="42"/>
       <c r="M811" s="43"/>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A812" s="43" t="s">
         <v>127</v>
       </c>
@@ -7754,206 +7749,206 @@
       <c r="L812" s="42"/>
       <c r="M812" s="43"/>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A814" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B814" s="42"/>
       <c r="C814" s="43"/>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A815" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B815" s="42"/>
       <c r="C815" s="43"/>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A816" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B816" s="42"/>
       <c r="C816" s="43"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B817" s="42"/>
       <c r="C817" s="43"/>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B818" s="42"/>
       <c r="C818" s="43"/>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B819" s="42"/>
       <c r="C819" s="43"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B820" s="42"/>
       <c r="C820" s="43"/>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B822" s="42"/>
       <c r="C822" s="43"/>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B823" s="42"/>
       <c r="C823" s="43"/>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B824" s="42"/>
       <c r="C824" s="43"/>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B825" s="42"/>
       <c r="C825" s="43"/>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B826" s="42"/>
       <c r="C826" s="43"/>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B828" s="42"/>
       <c r="C828" s="45"/>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B829" s="42"/>
       <c r="C829" s="43"/>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B830" s="42"/>
       <c r="C830" s="43"/>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B831" s="42"/>
       <c r="C831" s="43"/>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B832" s="42"/>
       <c r="C832" s="43"/>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B833" s="42"/>
       <c r="C833" s="43"/>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B834" s="42"/>
       <c r="C834" s="43"/>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B835" s="42"/>
       <c r="C835" s="43"/>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B837" s="42"/>
       <c r="C837" s="45"/>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B838" s="42"/>
       <c r="C838" s="43"/>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B839" s="42"/>
       <c r="C839" s="43"/>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B840" s="42"/>
       <c r="C840" s="43"/>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B842" s="42"/>
       <c r="C842" s="43"/>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B843" s="42"/>
       <c r="C843" s="43"/>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" s="40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7967,20 +7962,20 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="55.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="45.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="45.8984375" style="3" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -7991,28 +7986,28 @@
         <v>35</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>207</v>
       </c>
       <c r="C2" s="30">
         <v>2023316</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="69" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="66"/>
+      <c r="E2" s="74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="30"/>
